--- a/biology/Histoire de la zoologie et de la botanique/Dong_Zhiming/Dong_Zhiming.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Dong_Zhiming/Dong_Zhiming.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dong Zhiming (chinois : 董枝明 ; pinyin : Dǒng Zhiming, né en janvier 1937) de l'Institut de paléontologie des vertébrés et de paléoanthropologie (IVPP) à Pékin, est l'un des plus importants paléontologues chinois. Il a commencé à travailler à l'IVPP en 1962 sous la direction de Yang Zhongjian qui était alors directeur de l'IVPP[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dong Zhiming (chinois : 董枝明 ; pinyin : Dǒng Zhiming, né en janvier 1937) de l'Institut de paléontologie des vertébrés et de paléoanthropologie (IVPP) à Pékin, est l'un des plus importants paléontologues chinois. Il a commencé à travailler à l'IVPP en 1962 sous la direction de Yang Zhongjian qui était alors directeur de l'IVPP.
 Il a décrit de nombreux dinosaures, y compris les sauropodes Shunosaurus, Datousaurus, Zizhongosaurus et Omeisaurus, ainsi que Alxasaurus, Archaeoceratops, Huayangosaurus, Micropachycephalosaurus et Wuerhosaurus.
 Il a travaillé sur la formation de Dashanpu, formation importante car possédant des gisements de fossiles du Jurassique moyen et possédant des fossiles rares.
 </t>
